--- a/Docs/thermistorSelector.xlsx
+++ b/Docs/thermistorSelector.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marshall\Dropbox\OpenBMS\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14mascholz\Dropbox\OpenBMS\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,8 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -435,7 +434,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
